--- a/individual_results/harvard/518.xlsx
+++ b/individual_results/harvard/518.xlsx
@@ -525,7 +525,7 @@
         <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
         <v>0.3333333333333333</v>
@@ -540,7 +540,7 @@
         <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I4" t="n">
         <v>0.5</v>
@@ -627,9 +627,7 @@
       <c r="L4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>1</v>
       </c>
@@ -655,7 +653,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>2.142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I5" t="n">
         <v>0.7142857142857143</v>
@@ -669,9 +667,7 @@
       <c r="L5" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>1</v>
       </c>
@@ -701,7 +697,7 @@
         <v>0.6309297535714575</v>
       </c>
       <c r="H6" t="n">
-        <v>2.130929753571458</v>
+        <v>0.6309297535714575</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -716,7 +712,7 @@
         <v>0.6309297535714575</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -747,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -762,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -808,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -854,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -881,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -895,9 +891,7 @@
       <c r="L10" t="n">
         <v>2</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>1</v>
       </c>
@@ -925,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
